--- a/public/bd.xlsx
+++ b/public/bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vagner/Documents/dev/projetos/agendalives/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1508D07C-EFD6-A64A-BF04-2508C2BEC341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5994CB5B-6EE3-A74F-BDEA-9DCD21FD4BC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30620" yWindow="2820" windowWidth="28240" windowHeight="17560" xr2:uid="{2AB2A154-7DA1-EA49-8256-ABBC7108798E}"/>
+    <workbookView xWindow="-30680" yWindow="2820" windowWidth="28240" windowHeight="17560" xr2:uid="{2AB2A154-7DA1-EA49-8256-ABBC7108798E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>description</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>artist_id</t>
+  </si>
+  <si>
+    <t>published?</t>
+  </si>
+  <si>
+    <t>highlight?</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A767AB-9ED9-464A-9831-32A8DA2754F8}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,7 +471,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -515,6 +524,16 @@
       </c>
       <c r="C7" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
